--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_19-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_19-14.xlsx
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t xml:space="preserve">جل دم الغزال </t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>-4:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -2296,11 +2302,11 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>55.600000000000001</v>
+        <v>12</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2308,7 +2314,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2316,17 +2322,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>70</v>
+        <v>55.600000000000001</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2334,7 +2340,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2342,17 +2348,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2374,7 +2380,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2394,13 +2400,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2412,7 +2418,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2420,13 +2426,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>35</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2438,7 +2444,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2446,51 +2452,77 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="65" ht="26.25" customHeight="1">
-      <c r="K65" s="10">
-        <v>4327.46</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="11">
-        <v>95</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c t="s" r="F66" s="12">
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
         <v>96</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13"/>
-      <c t="s" r="I66" s="14">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>73</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>30</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c t="s" r="N65" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="K66" s="10">
+        <v>4339.46</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="11">
         <v>97</v>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c t="s" r="F67" s="12">
+        <v>98</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+      <c t="s" r="I67" s="14">
+        <v>99</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="197">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2681,10 +2713,13 @@
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:N67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
